--- a/biology/Zoologie/Caloenas_canacorum/Caloenas_canacorum.xlsx
+++ b/biology/Zoologie/Caloenas_canacorum/Caloenas_canacorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Caloenas canacorum est une espèce éteinte d'oiseaux de la famille des Columbiformes[1].
+Caloenas canacorum est une espèce éteinte d'oiseaux de la famille des Columbiformes.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des restes subfossiles ont été trouvés en Nouvelle-Calédonie et aux Tonga et possiblement aux Fidji et au Vanuatu[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des restes subfossiles ont été trouvés en Nouvelle-Calédonie et aux Tonga et possiblement aux Fidji et au Vanuatu.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'était un pigeon terrestre, environ 25 % plus grand que le Nicobar à camail (Caloenas nicobarica), et faisant donc environ 38 cm de long. Il était capable de voler[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'était un pigeon terrestre, environ 25 % plus grand que le Nicobar à camail (Caloenas nicobarica), et faisant donc environ 38 cm de long. Il était capable de voler.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Extinction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce pigeon fut sûrement chassé pour sa viande par les humains, et c'est probablement la chasse qui a entraîné sa disparition[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce pigeon fut sûrement chassé pour sa viande par les humains, et c'est probablement la chasse qui a entraîné sa disparition.
 </t>
         </is>
       </c>
